--- a/mysite/mysite/static/data/european_co2_by_sector_w_indirect.xlsx
+++ b/mysite/mysite/static/data/european_co2_by_sector_w_indirect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://afonline-my.sharepoint.com/personal/atte_koskivaara_afry_com/Documents/Documents/Other/co2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03102120\Desktop\django\mysite\mysite\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="102_{D905854A-5CA9-411D-9F53-129CB22FC361}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{22241C68-6F7F-4A33-B22C-F5BDA2197E56}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A149A6F-2A22-4B79-986A-60D7F2E62968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10788" xr2:uid="{0A2CCA7A-000C-46FB-B56C-7AAE59A30818}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0A2CCA7A-000C-46FB-B56C-7AAE59A30818}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,9 +259,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -298,14 +298,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -623,27 +623,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BBA466-788A-49DB-BA44-8991E3BCC4EE}">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" customWidth="1"/>
-    <col min="11" max="12" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" customWidth="1"/>
+    <col min="11" max="12" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +684,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -716,7 +716,7 @@
         <v>4209.37</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -748,7 +748,7 @@
         <v>4006.83</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -780,7 +780,7 @@
         <v>3799.09</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -812,7 +812,7 @@
         <v>3704.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -844,7 +844,7 @@
         <v>3603.64</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -876,7 +876,7 @@
         <v>3509.83</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -908,7 +908,7 @@
         <v>3412.26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -940,7 +940,7 @@
         <v>3303.7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -972,7 +972,7 @@
         <v>3219.22</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>3012.73</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>2856.46</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>2746.2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>2615.02</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>2577.63</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>2477.71</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>2494.12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>2482.4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>2408.41</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>2309.63</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>2157.1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>2203.4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>2087.4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>2008.94</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>1859.76</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>1797.02</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>1788.32</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>1739.21</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>1727.87</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1612,62 +1612,62 @@
         <v>1611.79</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1678,102 +1678,102 @@
         <v>2543474.0295000002</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -1783,6 +1783,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A2:A30" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -1790,21 +1791,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D43E3CCED02EB49A2B938930B23E0D4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7f97b1aa684bd3d681480be0aac81a24">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="70ba084a-0082-4287-b2e5-8aa8ab3b3f0d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a37a611540b95fd34561699080d55835" ns3:_="">
     <xsd:import namespace="70ba084a-0082-4287-b2e5-8aa8ab3b3f0d"/>
@@ -1982,10 +1968,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D438DB-D769-4F79-A67C-52EA5F1E9399}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE240C43-53F8-41EC-A7E2-35EABEDAB00B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="70ba084a-0082-4287-b2e5-8aa8ab3b3f0d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2007,19 +2018,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE240C43-53F8-41EC-A7E2-35EABEDAB00B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D438DB-D769-4F79-A67C-52EA5F1E9399}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="70ba084a-0082-4287-b2e5-8aa8ab3b3f0d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>